--- a/biology/Botanique/Eteläpuisto/Eteläpuisto.xlsx
+++ b/biology/Botanique/Eteläpuisto/Eteläpuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Etel%C3%A4puisto</t>
+          <t>Eteläpuisto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc du sud (en finnois : Eteläpuisto) est un parc s'étendant dans les quartiers de Kaakinmaa  et de Nalkala  à Tampere en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc du sud (en finnois : Eteläpuisto) est un parc s'étendant dans les quartiers de Kaakinmaa  et de Nalkala  à Tampere en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Etel%C3%A4puisto</t>
+          <t>Eteläpuisto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc, situé en bordure du lac Pyhäjärvi, est élaboré de 1915 à 1917 et de 1928 à 1929 selon les plans de K. Vaaramäki[2]. 
-Dans le parc Eteläpuisto on trouve les plus grands exemplaires d'Acer tataricum subsp. ginnala et de bouleau à papier[2]. 
-On peut y voir aussi le mémorial aux coopératives sculpté en 1950 par Wäinö Aaltonen et le buste de Fabian Klingendahl sculpté par Yrjö Liipola[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc, situé en bordure du lac Pyhäjärvi, est élaboré de 1915 à 1917 et de 1928 à 1929 selon les plans de K. Vaaramäki. 
+Dans le parc Eteläpuisto on trouve les plus grands exemplaires d'Acer tataricum subsp. ginnala et de bouleau à papier. 
+On peut y voir aussi le mémorial aux coopératives sculpté en 1950 par Wäinö Aaltonen et le buste de Fabian Klingendahl sculpté par Yrjö Liipola.
 </t>
         </is>
       </c>
